--- a/EX3_ECG_samples/outputs/adult_blink_record_align.xlsx
+++ b/EX3_ECG_samples/outputs/adult_blink_record_align.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus.sharepoint.com/sites/ExperimentalPsychology-Leverhulme2022/Shared Documents/General/3_Data_Processing/Data_preprocessing/ECG Preprocessing/Kylie_preprocessing/Adults/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexfraser/Development/example_code/EX3_ECG_samples/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{820D9578-D620-824E-BC6D-23BCBFAD76AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F14AB5-B8BF-8A48-946B-E5EBFBA5ED2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B922927A-102D-3C43-8E0E-A6A02810BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14480" yWindow="520" windowWidth="14320" windowHeight="16640" xr2:uid="{A5937000-5A8D-684B-A9A0-45E2576FA855}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -50,89 +50,14 @@
     <t>HR Baseline Record</t>
   </si>
   <si>
-    <t>A0001</t>
-  </si>
-  <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>A005</t>
-  </si>
-  <si>
-    <t>A006</t>
-  </si>
-  <si>
-    <t>A007</t>
-  </si>
-  <si>
-    <t>A008</t>
-  </si>
-  <si>
-    <t>A009</t>
-  </si>
-  <si>
-    <t>A010</t>
-  </si>
-  <si>
-    <t>A011</t>
-  </si>
-  <si>
-    <t>A012</t>
-  </si>
-  <si>
-    <t>A013</t>
-  </si>
-  <si>
-    <t>A014</t>
-  </si>
-  <si>
-    <t>A015</t>
-  </si>
-  <si>
-    <t>A016</t>
-  </si>
-  <si>
-    <t>A017</t>
-  </si>
-  <si>
-    <t>A018</t>
-  </si>
-  <si>
-    <t>A019</t>
-  </si>
-  <si>
-    <t>A020</t>
-  </si>
-  <si>
-    <t>A021</t>
-  </si>
-  <si>
-    <t>A022</t>
-  </si>
-  <si>
-    <t>A023</t>
-  </si>
-  <si>
-    <t>A024</t>
-  </si>
-  <si>
-    <t>A025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,9 +318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -433,7 +358,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -539,7 +464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -681,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,12 +617,12 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.1">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,681 +636,631 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>44995</v>
       </c>
       <c r="B2" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>45222</v>
       </c>
       <c r="B3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>45223</v>
       </c>
       <c r="B4" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>45224</v>
       </c>
       <c r="B5" s="21">
         <v>0.625</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>45225</v>
       </c>
       <c r="B6" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>45226</v>
       </c>
       <c r="B7" s="21">
         <v>0.625</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>45229</v>
       </c>
       <c r="B8" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>45231</v>
       </c>
       <c r="B9" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>45232</v>
       </c>
       <c r="B10" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>45233</v>
       </c>
       <c r="B11" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>45233</v>
       </c>
       <c r="B12" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>45233</v>
       </c>
       <c r="B13" s="21">
         <v>0.625</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>45239</v>
       </c>
       <c r="B14" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>45240</v>
       </c>
       <c r="B15" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>45240</v>
       </c>
       <c r="B16" s="21">
         <v>0.625</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>45241</v>
       </c>
       <c r="B17" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>45241</v>
       </c>
       <c r="B18" s="21">
         <v>0.625</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>45243</v>
       </c>
       <c r="B19" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>45244</v>
       </c>
       <c r="B20" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>45244</v>
       </c>
       <c r="B21" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>45245</v>
       </c>
       <c r="B22" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>45246</v>
       </c>
       <c r="B23" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>45247</v>
       </c>
       <c r="B24" s="21">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>45247</v>
       </c>
       <c r="B25" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>45247</v>
       </c>
       <c r="B26" s="21">
         <v>0.625</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="20"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="18"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="6"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="10"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="10"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="10"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="10"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="10"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="10"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="11"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1405,15 +1280,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2F931A4864C6946ADF65792489D99EC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="07fd840e3316f2d58c78ff6aee728222">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f6c2a4c-184f-4820-a9e2-2488483fbbbc" xmlns:ns3="c7b00679-b217-4836-acbb-86e4d62c5d4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f18ef488289586f621b0f2dd94353b10" ns2:_="" ns3:_="">
     <xsd:import namespace="5f6c2a4c-184f-4820-a9e2-2488483fbbbc"/>
@@ -1662,6 +1528,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1674,13 +1549,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{055F4829-A8B7-4AC3-AA0B-0F2C69B096F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE93754C-580A-41ED-9F9F-EA9E6BEC03C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5f6c2a4c-184f-4820-a9e2-2488483fbbbc"/>
+    <ds:schemaRef ds:uri="c7b00679-b217-4836-acbb-86e4d62c5d4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE93754C-580A-41ED-9F9F-EA9E6BEC03C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{055F4829-A8B7-4AC3-AA0B-0F2C69B096F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{727862F9-4638-4C51-989A-07B7B63774EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{727862F9-4638-4C51-989A-07B7B63774EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c7b00679-b217-4836-acbb-86e4d62c5d4d"/>
+    <ds:schemaRef ds:uri="5f6c2a4c-184f-4820-a9e2-2488483fbbbc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>